--- a/bots/crawl_ch/output/toilet_coop_2022-07-12.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-12.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1097,109 +1097,107 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
+          <t>30Rol</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.47/1Rol</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1208,83 +1206,85 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.98/1Rol</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.47/1Rol</t>
+          <t>0.98/1Rol</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1309,142 +1309,142 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>4489512</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.97/1Rol</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4489512</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23.25</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.97/1Rol</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1720,45 +1720,43 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6638996</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>176BLT</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1772,48 +1770,50 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>6638996</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Oecoplan Allzweck Papiertücher</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>176BLT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>810BLT</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-12 07:03:39</t>
+          <t>2022-07-12 20:57:31</t>
         </is>
       </c>
     </row>
